--- a/target/classes/ScenarioResults.xlsx
+++ b/target/classes/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="52">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>2020-12-23 22 34 11</t>
+  </si>
+  <si>
+    <t>2020-12-23 22 35 18</t>
   </si>
 </sst>
 </file>
@@ -209,7 +212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -789,6 +792,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/classes/ScenarioResults.xlsx
+++ b/target/classes/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="55">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>2020-12-23 22 35 18</t>
+  </si>
+  <si>
+    <t>2020-12-24 00 19 26</t>
+  </si>
+  <si>
+    <t>2020-12-24 00 19 44</t>
+  </si>
+  <si>
+    <t>2020-12-24 00 20 37</t>
   </si>
 </sst>
 </file>
@@ -212,7 +221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -806,6 +815,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/classes/ScenarioResults.xlsx
+++ b/target/classes/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="58">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>2020-12-24 00 20 37</t>
+  </si>
+  <si>
+    <t>2020-12-24 00 25 41</t>
+  </si>
+  <si>
+    <t>2020-12-24 00 25 59</t>
+  </si>
+  <si>
+    <t>2020-12-24 00 26 30</t>
   </si>
 </sst>
 </file>
@@ -221,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -857,6 +866,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
